--- a/SchedulingData/dynamic9/pso/scheduling2_13.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>218.88</v>
+        <v>259.34</v>
       </c>
       <c r="D2" t="n">
-        <v>287.78</v>
+        <v>313.42</v>
       </c>
       <c r="E2" t="n">
-        <v>15.212</v>
+        <v>12.248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>233.48</v>
+        <v>239.72</v>
       </c>
       <c r="D3" t="n">
-        <v>312.48</v>
+        <v>278.42</v>
       </c>
       <c r="E3" t="n">
-        <v>10.872</v>
+        <v>11.868</v>
       </c>
     </row>
     <row r="4">
@@ -504,22 +504,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>209.92</v>
+        <v>278.42</v>
       </c>
       <c r="D4" t="n">
-        <v>256.08</v>
+        <v>328.92</v>
       </c>
       <c r="E4" t="n">
-        <v>12.892</v>
+        <v>9.448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -527,246 +527,246 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>220.3</v>
+        <v>215.22</v>
       </c>
       <c r="D5" t="n">
-        <v>277.3</v>
+        <v>262.42</v>
       </c>
       <c r="E5" t="n">
-        <v>13.42</v>
+        <v>13.448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>256.08</v>
+        <v>234.3</v>
       </c>
       <c r="D6" t="n">
-        <v>299.56</v>
+        <v>287.76</v>
       </c>
       <c r="E6" t="n">
-        <v>10.164</v>
+        <v>14.684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>235.88</v>
+        <v>242.74</v>
       </c>
       <c r="D7" t="n">
-        <v>288.38</v>
+        <v>276.7</v>
       </c>
       <c r="E7" t="n">
-        <v>16.592</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>287.78</v>
+        <v>217.18</v>
       </c>
       <c r="D8" t="n">
-        <v>328.2</v>
+        <v>273.24</v>
       </c>
       <c r="E8" t="n">
-        <v>12.3</v>
+        <v>12.336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>238.38</v>
+        <v>328.92</v>
       </c>
       <c r="D9" t="n">
-        <v>293.08</v>
+        <v>365.92</v>
       </c>
       <c r="E9" t="n">
-        <v>9.872</v>
+        <v>6.388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>277.3</v>
+        <v>276.7</v>
       </c>
       <c r="D10" t="n">
-        <v>358.8</v>
+        <v>321.5</v>
       </c>
       <c r="E10" t="n">
-        <v>10.36</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>293.08</v>
+        <v>313.42</v>
       </c>
       <c r="D11" t="n">
-        <v>336.64</v>
+        <v>355.54</v>
       </c>
       <c r="E11" t="n">
-        <v>7.136</v>
+        <v>9.656000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>288.38</v>
+        <v>355.54</v>
       </c>
       <c r="D12" t="n">
-        <v>333.78</v>
+        <v>388.54</v>
       </c>
       <c r="E12" t="n">
-        <v>12.692</v>
+        <v>7.496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>333.78</v>
+        <v>287.76</v>
       </c>
       <c r="D13" t="n">
-        <v>387.02</v>
+        <v>338.08</v>
       </c>
       <c r="E13" t="n">
-        <v>9.988</v>
+        <v>11.772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>299.56</v>
+        <v>338.08</v>
       </c>
       <c r="D14" t="n">
-        <v>349.76</v>
+        <v>387.88</v>
       </c>
       <c r="E14" t="n">
-        <v>7.744</v>
+        <v>7.932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>312.48</v>
+        <v>273.24</v>
       </c>
       <c r="D15" t="n">
-        <v>376.14</v>
+        <v>322.62</v>
       </c>
       <c r="E15" t="n">
-        <v>8.116</v>
+        <v>8.528</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>349.76</v>
+        <v>321.5</v>
       </c>
       <c r="D16" t="n">
-        <v>398.46</v>
+        <v>394.34</v>
       </c>
       <c r="E16" t="n">
-        <v>5.504</v>
+        <v>5.416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>328.2</v>
+        <v>262.42</v>
       </c>
       <c r="D17" t="n">
-        <v>388.1</v>
+        <v>311.34</v>
       </c>
       <c r="E17" t="n">
-        <v>9.44</v>
+        <v>9.696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -774,51 +774,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>336.64</v>
+        <v>311.34</v>
       </c>
       <c r="D18" t="n">
-        <v>377.72</v>
+        <v>367.32</v>
       </c>
       <c r="E18" t="n">
-        <v>4.168</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>pond11</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>415.62</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.768</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>pond5</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>376.14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>410.62</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5.308</v>
+        <v>6.728</v>
       </c>
     </row>
   </sheetData>
